--- a/tables/Census/Water/Excel/pakistan_water-converted.xlsx
+++ b/tables/Census/Water/Excel/pakistan_water-converted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IHI-2\IHI-2 Census 2017\Parameters\Water\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IHI-2\Project\tables\Census\Water\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C9312A-A833-4C23-813C-5D1E25D2FF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49EF499-797F-4E2B-A8FC-C01AA6680A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
